--- a/tabla-riesgos .xlsx
+++ b/tabla-riesgos .xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavie\Documents\Proyecto_Final\PoryectoFinalSIDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DEFE4F-0A4F-416F-A516-AFCCFB1E79A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="164">
   <si>
     <t>Codigo del riesgo</t>
   </si>
@@ -379,12 +388,144 @@
   </si>
   <si>
     <t>Rechazo del producto por parte del usuario (no cumple los criterios de aceptación)</t>
+  </si>
+  <si>
+    <t>Nivel del riesgo</t>
+  </si>
+  <si>
+    <t>Plan de Mitigación</t>
+  </si>
+  <si>
+    <t>Se debe contar con un analista con experiencia para que realice el levantamineto de riesgos de manera optima</t>
+  </si>
+  <si>
+    <t>Plan de Contingencia</t>
+  </si>
+  <si>
+    <t>Se debe organizar reuniones con el cliente y especificar requerimeintos faltantes</t>
+  </si>
+  <si>
+    <t>Revisar documentación de versiones y de plugins o depencias que se usarán.</t>
+  </si>
+  <si>
+    <t>Buscar herramientas alternativas que sean compatibles con los medios utilizados.</t>
+  </si>
+  <si>
+    <t>Evitar contratación de desarrolladores inexpertos Ofrecer capacitaciones al equipo de desarrollo y plantear tiempos de holgura para el aprendizaje</t>
+  </si>
+  <si>
+    <t>Abrir convocatoria para capacitación en horarios adicionales</t>
+  </si>
+  <si>
+    <t>Trabajar con una versión estable o conocidad</t>
+  </si>
+  <si>
+    <t>Solicitar documentación de alguien experto o dedicar tiempo recursos para aprender las nuevas carácterísticas</t>
+  </si>
+  <si>
+    <t>Contratar más gente experta o siempre estimar 20% mas de recurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modificar linea base de desarrollo y segmentar por modulos</t>
+  </si>
+  <si>
+    <t>Reuniones períodicas con el Usuario, también por fases</t>
+  </si>
+  <si>
+    <t>Reuniones con el cliente para identificar que no le gusto y concretar entrega</t>
+  </si>
+  <si>
+    <t>Listar proveedores que cumplan con los requisitos. Usar otro proveedor que use  las mismas tecnologias.Ver clausulas de contrato</t>
+  </si>
+  <si>
+    <t>Solicitar cumplimiento de clausulas de contrato. Revisar tiempos de entrega.Renegociar con el cliente.</t>
+  </si>
+  <si>
+    <t>Conocer muy bien el Manejador de transacciones.Pruebas constantes de concepto.Definir reglas y control de errores.</t>
+  </si>
+  <si>
+    <t>Acudir a los resultados en primera medida. Ajustar Modelo.</t>
+  </si>
+  <si>
+    <t>Buscar soporte del proveedor.Cambio de proveedor de servicios de comunicaciones.</t>
+  </si>
+  <si>
+    <t>Que una persona experta plantee o analice las póliticas de calidad .</t>
+  </si>
+  <si>
+    <t>Plantas de energia, tener otro proveedor de comunicaciones y control de copias de seguridad.Tener excelente locación de área de computo.</t>
+  </si>
+  <si>
+    <t>Hacer cambios en el plan de pruebas.</t>
+  </si>
+  <si>
+    <t>Actualizar la política de acuerdo a las normas de cada país</t>
+  </si>
+  <si>
+    <t>Hablar con el cliente. Generar un plan de cambio de políticas de tratamiento de datos. Hacer cambios pertinentes en el contrato respecto al tratamiento de datos.</t>
+  </si>
+  <si>
+    <t>No actualizar</t>
+  </si>
+  <si>
+    <t>Adquirir licencias a perpetuidad.O negociar contratos de licencia a largo plazo.Adquirir software con licencias libres.</t>
+  </si>
+  <si>
+    <t>Confirmar contrato sin cambio de condiciones.</t>
+  </si>
+  <si>
+    <t>Establecer condiciones en el contrato en caso de presentarse la situación.</t>
+  </si>
+  <si>
+    <t>Plantear un plan de negoción de negociación de costos.</t>
+  </si>
+  <si>
+    <t>Negociar costos.</t>
+  </si>
+  <si>
+    <t>Falta de cumplimiento de hitos por alguna area asociada al proyecto</t>
+  </si>
+  <si>
+    <t>Establecer fechas de entrega de cada uno de los hitos.</t>
+  </si>
+  <si>
+    <t>Hacer uso de la holgura establecida para entregas.Revisar Cronograma.</t>
+  </si>
+  <si>
+    <t>Establecer precio de producto basado en costos en moneda local considerando un margen de estabilidad y cobrar en moneda local del cliente.</t>
+  </si>
+  <si>
+    <t>Aplicar al cliente el costo de la tasa vigente</t>
+  </si>
+  <si>
+    <t>Asegurar los equipos, Generar un contrato de responsabilidad de uso.Elegir correcta locación.</t>
+  </si>
+  <si>
+    <t>Hacer reparaciones pertinenetes. Ir a la aseguradora. Cobrar daño al empleado.</t>
+  </si>
+  <si>
+    <t>Asegurar locación.Crear fondo de capital riesgo.</t>
+  </si>
+  <si>
+    <t>Acudir a la aseguradora. Invertir capital de riesgo.</t>
+  </si>
+  <si>
+    <t>Hacer buen levantamiento de requerimientos y delimitación de alcance</t>
+  </si>
+  <si>
+    <t>Mirar contrato.Renegociar contrato.</t>
+  </si>
+  <si>
+    <t>Ealuación de riesgos e impacto en las fases de desarrollo</t>
+  </si>
+  <si>
+    <t>Acceder a las previsoras de riesgo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -451,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -481,6 +622,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +652,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B31:C44" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B31:C44" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Columna1"/>
-    <tableColumn id="2" name="Columna2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Columna2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -765,11 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:F55"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1437,4 +1590,416 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C08A32-9E55-4306-A7F0-B282C12380AD}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="45">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:7" ht="78" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" ht="63.75" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" s="16" customFormat="1" ht="102" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" ht="60">
+      <c r="B6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" ht="60">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" ht="45">
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" ht="90">
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" ht="90">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="105">
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" ht="45">
+      <c r="B12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" ht="52.5" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" ht="90">
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" ht="45">
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" ht="45">
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" ht="45">
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" ht="90">
+      <c r="B18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" ht="75">
+      <c r="B19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" ht="30">
+      <c r="B20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" ht="60">
+      <c r="B21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" ht="45">
+      <c r="B22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="G26" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabla-riesgos .xlsx
+++ b/tabla-riesgos .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavie\Documents\Proyecto_Final\PoryectoFinalSIDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DEFE4F-0A4F-416F-A516-AFCCFB1E79A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C13859-FC88-482F-AC69-CBA5057367F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="173">
   <si>
     <t>Codigo del riesgo</t>
   </si>
@@ -520,6 +520,33 @@
   </si>
   <si>
     <t>Acceder a las previsoras de riesgo</t>
+  </si>
+  <si>
+    <t>Hacer plan de capacitación y evaluación de capacidades de desarrollo</t>
+  </si>
+  <si>
+    <t>Acceder a la evaluación experta y  acceder a tiempo de capacitación</t>
+  </si>
+  <si>
+    <t>Generar un control con fechas de finalización de cada hito y evaluación</t>
+  </si>
+  <si>
+    <t>Dar plazos de entrega juntando con las otras actividades</t>
+  </si>
+  <si>
+    <t>Evaluar documentación  y problemas de compatibilidad</t>
+  </si>
+  <si>
+    <t>Contratar experto en el tema</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Bajo</t>
   </si>
 </sst>
 </file>
@@ -592,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -633,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:BB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G26"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -935,7 +965,7 @@
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="45">
+    <row r="2" spans="2:54" ht="45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="74.099999999999994" customHeight="1">
+    <row r="3" spans="2:54" ht="74.099999999999994" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -975,7 +1005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="65.099999999999994" customHeight="1">
+    <row r="4" spans="2:54" ht="65.099999999999994" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -995,7 +1025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="63" customHeight="1">
+    <row r="5" spans="2:54" ht="63" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +1045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="69.95" customHeight="1">
+    <row r="6" spans="2:54" ht="69.95" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="68.099999999999994" customHeight="1">
+    <row r="7" spans="2:54" ht="68.099999999999994" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="56.1" customHeight="1">
+    <row r="8" spans="2:54" ht="56.1" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1075,7 +1105,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="69" customHeight="1">
+    <row r="9" spans="2:54" ht="69" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1094,8 +1124,26 @@
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="36" customHeight="1">
+      <c r="AW9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB9" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:54" ht="36" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1114,8 +1162,26 @@
       <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="42" customHeight="1">
+      <c r="AW10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:54" ht="42" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1134,8 +1200,26 @@
       <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="53.1" customHeight="1">
+      <c r="AW11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:54" ht="53.1" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
@@ -1154,8 +1238,26 @@
       <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="42" customHeight="1">
+      <c r="AW12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:54" ht="42" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
@@ -1172,8 +1274,26 @@
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="48" customHeight="1">
+      <c r="AW13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:54" ht="48" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1192,8 +1312,26 @@
       <c r="G14" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="39" customHeight="1">
+      <c r="AW14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:54" ht="39" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
@@ -1212,8 +1350,26 @@
       <c r="G15" s="11">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="42" customHeight="1">
+      <c r="AW15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB15" s="10">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:54" ht="42" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
@@ -1232,8 +1388,26 @@
       <c r="G16" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="48" customHeight="1">
+      <c r="AW16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:54" ht="48" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
@@ -1252,8 +1426,26 @@
       <c r="G17" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="38.1" customHeight="1">
+      <c r="AW17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:54" ht="38.1" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>62</v>
       </c>
@@ -1272,8 +1464,26 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="66" customHeight="1">
+      <c r="AW18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:54" ht="66" customHeight="1">
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1292,8 +1502,26 @@
       <c r="G19" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="51" customHeight="1">
+      <c r="AW19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:54" ht="51" customHeight="1">
       <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
@@ -1312,8 +1540,24 @@
       <c r="G20" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="45.95" customHeight="1">
+      <c r="AW20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:54" ht="45.95" customHeight="1">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1332,8 +1576,26 @@
       <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="39.950000000000003" customHeight="1">
+      <c r="AW21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB21" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:54" ht="39.950000000000003" customHeight="1">
       <c r="B22" s="3" t="s">
         <v>76</v>
       </c>
@@ -1352,8 +1614,26 @@
       <c r="G22" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="42" customHeight="1">
+      <c r="AW22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB22" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:54" ht="42" customHeight="1">
       <c r="B23" s="3" t="s">
         <v>80</v>
       </c>
@@ -1372,8 +1652,26 @@
       <c r="G23" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="48.95" customHeight="1">
+      <c r="AW23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:54" ht="48.95" customHeight="1">
       <c r="B24" s="3" t="s">
         <v>84</v>
       </c>
@@ -1392,8 +1690,26 @@
       <c r="G24" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="44.1" customHeight="1">
+      <c r="AW24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:54" ht="44.1" customHeight="1">
       <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
@@ -1412,8 +1728,26 @@
       <c r="G25" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="51" customHeight="1">
+      <c r="AW25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB25" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:54" ht="51" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>91</v>
       </c>
@@ -1432,10 +1766,86 @@
       <c r="G26" s="4">
         <v>12.13</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="6" customHeight="1"/>
-    <row r="29" spans="2:7" hidden="1"/>
-    <row r="30" spans="2:7" ht="18.95" customHeight="1">
+      <c r="AW26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB26" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:54" ht="135">
+      <c r="AW27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB27" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:54" ht="6" customHeight="1">
+      <c r="AW28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:54" ht="165" hidden="1">
+      <c r="AW29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB29" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:54" ht="18.95" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
         <v>94</v>
@@ -1443,8 +1853,26 @@
       <c r="E30" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75">
+      <c r="AW30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB30" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:54" ht="15.75" customHeight="1">
       <c r="B31" s="5">
         <v>1</v>
       </c>
@@ -1454,8 +1882,26 @@
       <c r="E31" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75">
+      <c r="AW31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB31" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:54" ht="30.75" customHeight="1">
       <c r="B32" s="5">
         <v>2</v>
       </c>
@@ -1465,8 +1911,26 @@
       <c r="E32" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="15.75">
+      <c r="AW32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:54" ht="13.5" customHeight="1">
       <c r="B33" s="5">
         <v>3</v>
       </c>
@@ -1476,8 +1940,26 @@
       <c r="E33" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.75">
+      <c r="AW33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB33" s="4">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:54" ht="15.75">
       <c r="B34" s="5">
         <v>4</v>
       </c>
@@ -1488,7 +1970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15.75">
+    <row r="35" spans="2:54" ht="15.75">
       <c r="B35" s="5">
         <v>5</v>
       </c>
@@ -1499,7 +1981,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15.75">
+    <row r="36" spans="2:54" ht="15.75">
       <c r="B36" s="5">
         <v>6</v>
       </c>
@@ -1510,7 +1992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15.75">
+    <row r="37" spans="2:54" ht="15.75">
       <c r="B37" s="5">
         <v>7</v>
       </c>
@@ -1521,7 +2003,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15.75">
+    <row r="38" spans="2:54" ht="15.75">
       <c r="B38" s="5">
         <v>8</v>
       </c>
@@ -1532,7 +2014,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15.75">
+    <row r="39" spans="2:54" ht="15.75">
       <c r="B39" s="5">
         <v>9</v>
       </c>
@@ -1543,7 +2025,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15.75">
+    <row r="40" spans="2:54" ht="15.75">
       <c r="B40" s="5">
         <v>10</v>
       </c>
@@ -1551,7 +2033,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="15.75">
+    <row r="41" spans="2:54" ht="15.75">
       <c r="B41" s="5">
         <v>11</v>
       </c>
@@ -1559,7 +2041,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15.75">
+    <row r="42" spans="2:54" ht="15.75">
       <c r="B42" s="5">
         <v>12</v>
       </c>
@@ -1567,7 +2049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="15.75">
+    <row r="43" spans="2:54" ht="15.75">
       <c r="B43" s="5">
         <v>13</v>
       </c>
@@ -1575,7 +2057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="15.75">
+    <row r="44" spans="2:54" ht="15.75">
       <c r="B44" s="5">
         <v>14</v>
       </c>
@@ -1596,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C08A32-9E55-4306-A7F0-B282C12380AD}">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1610,7 +2092,7 @@
     <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="45">
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +2117,9 @@
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>122</v>
       </c>
@@ -1651,7 +2135,9 @@
       <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E4" s="15" t="s">
         <v>125</v>
       </c>
@@ -1660,14 +2146,16 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:7" s="16" customFormat="1" ht="102" customHeight="1">
+    <row r="5" spans="2:7" s="16" customFormat="1" ht="113.25" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="E5" s="15" t="s">
         <v>127</v>
       </c>
@@ -1683,7 +2171,9 @@
       <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>129</v>
       </c>
@@ -1699,7 +2189,9 @@
       <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>131</v>
       </c>
@@ -1715,7 +2207,9 @@
       <c r="C8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E8" s="9" t="s">
         <v>133</v>
       </c>
@@ -1731,7 +2225,9 @@
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E9" s="9" t="s">
         <v>135</v>
       </c>
@@ -1747,7 +2243,9 @@
       <c r="C10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>137</v>
       </c>
@@ -1763,7 +2261,9 @@
       <c r="C11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="E11" s="9" t="s">
         <v>141</v>
       </c>
@@ -1779,7 +2279,9 @@
       <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E12" s="9" t="s">
         <v>140</v>
       </c>
@@ -1795,7 +2297,9 @@
       <c r="C13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E13" s="15" t="s">
         <v>143</v>
       </c>
@@ -1811,7 +2315,9 @@
       <c r="C14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="E14" s="9" t="s">
         <v>146</v>
       </c>
@@ -1827,7 +2333,9 @@
       <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="E15" s="15" t="s">
         <v>148</v>
       </c>
@@ -1843,7 +2351,9 @@
       <c r="C16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E16" s="15" t="s">
         <v>149</v>
       </c>
@@ -1859,7 +2369,9 @@
       <c r="C17" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E17" s="15" t="s">
         <v>152</v>
       </c>
@@ -1875,7 +2387,9 @@
       <c r="C18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="E18" s="9" t="s">
         <v>154</v>
       </c>
@@ -1891,7 +2405,9 @@
       <c r="C19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E19" s="15" t="s">
         <v>156</v>
       </c>
@@ -1907,7 +2423,9 @@
       <c r="C20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E20" s="9" t="s">
         <v>158</v>
       </c>
@@ -1923,7 +2441,9 @@
       <c r="C21" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E21" s="15" t="s">
         <v>160</v>
       </c>
@@ -1939,7 +2459,9 @@
       <c r="C22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E22" s="9" t="s">
         <v>162</v>
       </c>
@@ -1948,51 +2470,57 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:7" ht="60">
+      <c r="B23" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>15</v>
+      <c r="D23" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:7" ht="45">
+      <c r="B24" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>15</v>
+        <v>166</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:7" ht="45">
+      <c r="B25" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="E25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>15</v>
+        <v>168</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="G25" s="4"/>
     </row>
